--- a/patient_data/patient_87.xlsx
+++ b/patient_data/patient_87.xlsx
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1327,28 +1327,28 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1404,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1481,31 +1481,31 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1522,67 +1522,67 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
